--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/29.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/29.xlsx
@@ -479,13 +479,13 @@
         <v>-22.27969329289468</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.778116830856744</v>
+        <v>-8.769554464798256</v>
       </c>
       <c r="F2" t="n">
-        <v>6.66992333808962</v>
+        <v>7.087986752431617</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.30776204119024</v>
+        <v>-16.79682501384292</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-21.60096667860114</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.951144705212997</v>
+        <v>-8.843133206768757</v>
       </c>
       <c r="F3" t="n">
-        <v>6.612133913346241</v>
+        <v>7.05638193337169</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.82155319055706</v>
+        <v>-16.27258302345452</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.62918662104778</v>
       </c>
       <c r="E4" t="n">
-        <v>-8.982945908815548</v>
+        <v>-8.851865772764187</v>
       </c>
       <c r="F4" t="n">
-        <v>6.696448343646957</v>
+        <v>7.140094117741687</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.96844564508735</v>
+        <v>-15.40663192889708</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.44894026547754</v>
       </c>
       <c r="E5" t="n">
-        <v>-9.970524496772629</v>
+        <v>-9.882256191013713</v>
       </c>
       <c r="F5" t="n">
-        <v>6.783512157544435</v>
+        <v>7.251902384010028</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.84406558473707</v>
+        <v>-14.23188577951468</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.08500948564831</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.58736834516055</v>
+        <v>-10.54049790098717</v>
       </c>
       <c r="F6" t="n">
-        <v>6.980420392283996</v>
+        <v>7.419719521835273</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.06457605814638</v>
+        <v>-13.44556207084061</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.61890813627048</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.46711872691318</v>
+        <v>-11.43495093883106</v>
       </c>
       <c r="F7" t="n">
-        <v>7.303590795629162</v>
+        <v>7.757003427643819</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.59757043242814</v>
+        <v>-11.93342727722694</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.08919472964013</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.26047300221325</v>
+        <v>-12.16283060761966</v>
       </c>
       <c r="F8" t="n">
-        <v>7.611914527551811</v>
+        <v>8.091092811558985</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.80682152539357</v>
+        <v>-11.12353742343776</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.56570140185242</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.04047312861477</v>
+        <v>-13.05584349215095</v>
       </c>
       <c r="F9" t="n">
-        <v>7.673448350907924</v>
+        <v>8.141341069865529</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.430990696665098</v>
+        <v>-9.633541713929443</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.08744217709045</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.11450019223576</v>
+        <v>-14.10199704302192</v>
       </c>
       <c r="F10" t="n">
-        <v>7.793635690994969</v>
+        <v>8.221413594045526</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.726480788448978</v>
+        <v>-8.884858375925337</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.69576473752897</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.00945073758763</v>
+        <v>-15.0334751133022</v>
       </c>
       <c r="F11" t="n">
-        <v>8.033905632746325</v>
+        <v>8.477106268544436</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.802530792302685</v>
+        <v>-7.902097755414012</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.424838441835927</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.34502273507779</v>
+        <v>-16.41593064726858</v>
       </c>
       <c r="F12" t="n">
-        <v>7.936446530392517</v>
+        <v>8.3515248996866</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.33821227202087</v>
+        <v>-7.390673129507666</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.278485592610375</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.39158214733685</v>
+        <v>-17.46057858331275</v>
       </c>
       <c r="F13" t="n">
-        <v>7.878814213283238</v>
+        <v>8.315678174505955</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.171206856971812</v>
+        <v>-7.287885459897275</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.28274191800628</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.83229842894891</v>
+        <v>-18.92192833420337</v>
       </c>
       <c r="F14" t="n">
-        <v>7.808246700966335</v>
+        <v>8.180225209305457</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.185343360686997</v>
+        <v>-6.240475047953506</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.422582562094029</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.96099894923696</v>
+        <v>-20.11368138497717</v>
       </c>
       <c r="F15" t="n">
-        <v>7.823433772262737</v>
+        <v>8.231416113416605</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.725868992456621</v>
+        <v>-5.704528538824608</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.698265099900945</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.9432620622403</v>
+        <v>-21.13134608486454</v>
       </c>
       <c r="F16" t="n">
-        <v>7.682089270783463</v>
+        <v>8.048176242843807</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.099952178199382</v>
+        <v>-5.073152234282368</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.088166156810821</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.09670703489921</v>
+        <v>-22.33971326794448</v>
       </c>
       <c r="F17" t="n">
-        <v>8.029428065174455</v>
+        <v>8.425915364433287</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.278177696783798</v>
+        <v>-5.248536723150131</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.568864463868954</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.98699672043942</v>
+        <v>-23.28184847273793</v>
       </c>
       <c r="F18" t="n">
-        <v>8.45490172292487</v>
+        <v>8.85495012855665</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.69270300600465</v>
+        <v>-4.556385948816598</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.121388093558889</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.60780753658839</v>
+        <v>-23.90086564339758</v>
       </c>
       <c r="F19" t="n">
-        <v>8.762963608790683</v>
+        <v>9.145992020728221</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.818870345136486</v>
+        <v>-3.6457377323575</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.711728195749133</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.52556487349054</v>
+        <v>-24.8592745806233</v>
       </c>
       <c r="F20" t="n">
-        <v>8.984851957352257</v>
+        <v>9.350048652819364</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.472487288852939</v>
+        <v>-3.314659578095931</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.330185584015567</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.54567465065544</v>
+        <v>-24.86210251803711</v>
       </c>
       <c r="F21" t="n">
-        <v>8.800590887157805</v>
+        <v>9.147091774166926</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.471780304499485</v>
+        <v>-3.265825288496293</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.956281660988964</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.21347374170336</v>
+        <v>-25.55708122978445</v>
       </c>
       <c r="F22" t="n">
-        <v>9.212029596261887</v>
+        <v>9.565102819297556</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.96681336724799</v>
+        <v>-3.809064210308033</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.589854486706178</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.3045438002704</v>
+        <v>-25.62195359036521</v>
       </c>
       <c r="F23" t="n">
-        <v>8.78577040034097</v>
+        <v>9.086971919517721</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.862336790571016</v>
+        <v>-3.662757726051744</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.233115206490976</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.72934975057589</v>
+        <v>-26.03711051347634</v>
       </c>
       <c r="F24" t="n">
-        <v>8.754977304057231</v>
+        <v>9.033555323923478</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.778546052383969</v>
+        <v>-3.579150280104481</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.895660049779811</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.69290077946452</v>
+        <v>-25.96147627995969</v>
       </c>
       <c r="F25" t="n">
-        <v>8.891818053358952</v>
+        <v>9.178722777832537</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.646693470464946</v>
+        <v>-3.446904929100206</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.594345053697658</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.03206997688228</v>
+        <v>-26.32964492817187</v>
       </c>
       <c r="F26" t="n">
-        <v>8.786555938511473</v>
+        <v>9.08765271926549</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.475145026329809</v>
+        <v>-3.233068346786294</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.341977173068065</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.02587731763814</v>
+        <v>-26.34847165965827</v>
       </c>
       <c r="F27" t="n">
-        <v>8.67252198076004</v>
+        <v>8.933765791663841</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.648081254566169</v>
+        <v>-3.447782113390602</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.156571678729153</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.94820068487818</v>
+        <v>-26.26559738267015</v>
       </c>
       <c r="F28" t="n">
-        <v>8.576869616198389</v>
+        <v>8.84843016174147</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.922299537586122</v>
+        <v>-3.733835838179475</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.046088172185725</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.73016147335208</v>
+        <v>-25.98377247169915</v>
       </c>
       <c r="F29" t="n">
-        <v>8.509758471831701</v>
+        <v>8.768567114406942</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.734438084110194</v>
+        <v>-3.567655238209446</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.016516630495485</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.63899976866514</v>
+        <v>-25.90172300979005</v>
       </c>
       <c r="F30" t="n">
-        <v>8.614811109833711</v>
+        <v>8.880977626606002</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.865793158521232</v>
+        <v>-3.682383088011491</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.063280480659767</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.33100334431353</v>
+        <v>-25.63501970860125</v>
       </c>
       <c r="F31" t="n">
-        <v>8.435315637873646</v>
+        <v>8.694936003225076</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.312947669777544</v>
+        <v>-4.134983997249962</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.176100552353509</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.88223847980769</v>
+        <v>-25.14824788894587</v>
       </c>
       <c r="F32" t="n">
-        <v>8.632197688007523</v>
+        <v>8.904072448818807</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.179445457700463</v>
+        <v>-3.99070681993414</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.337965958445581</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.76823070666194</v>
+        <v>-25.03281305479038</v>
       </c>
       <c r="F33" t="n">
-        <v>8.694778895590973</v>
+        <v>8.984459188267005</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.313877223279307</v>
+        <v>-4.14088862583158</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.52786827634862</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.39595107535746</v>
+        <v>-24.64594859812021</v>
       </c>
       <c r="F34" t="n">
-        <v>8.830991214356292</v>
+        <v>9.128055565835057</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.32937850984391</v>
+        <v>-4.12663110803694</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.724929889181416</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.20746119134512</v>
+        <v>-24.41985762034645</v>
       </c>
       <c r="F35" t="n">
-        <v>8.719837563230037</v>
+        <v>9.016037822721248</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.485608959654227</v>
+        <v>-4.300339782140962</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.909269803193092</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.90296041185226</v>
+        <v>-24.12289800729042</v>
       </c>
       <c r="F36" t="n">
-        <v>8.890116053989527</v>
+        <v>9.200351262127068</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.355733315464304</v>
+        <v>-4.130310045135465</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.067637472356336</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.2662424477506</v>
+        <v>-23.44472981239185</v>
       </c>
       <c r="F37" t="n">
-        <v>8.831148321990392</v>
+        <v>9.11632486248887</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.47212388772725</v>
+        <v>-4.207476078084599</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.191281850762747</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.80723940242252</v>
+        <v>-23.00493317533259</v>
       </c>
       <c r="F38" t="n">
-        <v>8.871917753039527</v>
+        <v>9.216140579354189</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.478814054479371</v>
+        <v>-4.213524721997477</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.28090642181047</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.64663612346307</v>
+        <v>-22.83791466798069</v>
       </c>
       <c r="F39" t="n">
-        <v>9.016640068651968</v>
+        <v>9.347639669096486</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.759080981412201</v>
+        <v>-4.538436401620592</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.340059797976432</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.94622410603641</v>
+        <v>-22.15407750595165</v>
       </c>
       <c r="F40" t="n">
-        <v>9.328393983919149</v>
+        <v>9.712155564815824</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.681954225371593</v>
+        <v>-4.426719781472143</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.378266115338997</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.24356021252097</v>
+        <v>-21.48647479944636</v>
       </c>
       <c r="F41" t="n">
-        <v>9.298150764354762</v>
+        <v>9.680184161276328</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.726284762793678</v>
+        <v>-4.480869546025523</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.404096597333189</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.55445994474956</v>
+        <v>-20.80856845060462</v>
       </c>
       <c r="F42" t="n">
-        <v>9.263272869584403</v>
+        <v>9.64334242107971</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.059078008727512</v>
+        <v>-4.840829320355938</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.426139186153838</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.66016401453978</v>
+        <v>-19.90140278670142</v>
       </c>
       <c r="F43" t="n">
-        <v>9.396185928033606</v>
+        <v>9.791782950699201</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.212716182575168</v>
+        <v>-4.988562865621976</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.452765399132906</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.0016342739038</v>
+        <v>-19.25500961079972</v>
       </c>
       <c r="F44" t="n">
-        <v>9.098676438258224</v>
+        <v>9.481600111773027</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.981754868144279</v>
+        <v>-4.783026803309719</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.486713933282421</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.48943720212979</v>
+        <v>-18.70836669024913</v>
       </c>
       <c r="F45" t="n">
-        <v>9.185399852281817</v>
+        <v>9.606134096403526</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.116762695048157</v>
+        <v>-4.936664977157374</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.531143324842875</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.86756590945064</v>
+        <v>-18.12209336899664</v>
       </c>
       <c r="F46" t="n">
-        <v>9.199722831590664</v>
+        <v>9.605191450598921</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.238848419047253</v>
+        <v>-5.092528842488123</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.584676780536876</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.75113606027917</v>
+        <v>-17.99462670852959</v>
       </c>
       <c r="F47" t="n">
-        <v>9.061991805695707</v>
+        <v>9.505637579790436</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.558641008259254</v>
+        <v>-5.478123345782639</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.648828689417743</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.06763929812402</v>
+        <v>-17.28785183192186</v>
       </c>
       <c r="F48" t="n">
-        <v>8.963144919240674</v>
+        <v>9.361491325503032</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.650653712630905</v>
+        <v>-5.576119232552958</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.724092500644212</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.17050233819759</v>
+        <v>-16.38657770429743</v>
       </c>
       <c r="F49" t="n">
-        <v>8.881736980170823</v>
+        <v>9.304042300633538</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.82029068055115</v>
+        <v>-5.768458253600756</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.810093396692092</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.60859379253354</v>
+        <v>-15.78245957427167</v>
       </c>
       <c r="F50" t="n">
-        <v>8.632119134190473</v>
+        <v>9.073801062858944</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.083066290887434</v>
+        <v>-6.06854692703596</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.910107142860641</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.87848843226185</v>
+        <v>-15.06462170176267</v>
       </c>
       <c r="F51" t="n">
-        <v>8.411042508405087</v>
+        <v>8.827037338898091</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.002627182227869</v>
+        <v>-5.982792343422654</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.024044979336146</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.16583511167817</v>
+        <v>-14.33545898729558</v>
       </c>
       <c r="F52" t="n">
-        <v>8.250164291085957</v>
+        <v>8.636203932677091</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.112523972281317</v>
+        <v>-6.062603021545816</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.157503744708778</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.69034885707237</v>
+        <v>-13.857472102847</v>
       </c>
       <c r="F53" t="n">
-        <v>8.323402633182573</v>
+        <v>8.763513485510035</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.142034022886568</v>
+        <v>-6.105218467295634</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.311434172006678</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.27462896493904</v>
+        <v>-13.43912065784248</v>
       </c>
       <c r="F54" t="n">
-        <v>8.107379636294093</v>
+        <v>8.551234887234289</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.371476630187817</v>
+        <v>-6.33175458336602</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.490673521399207</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.69556950255233</v>
+        <v>-12.83374566674391</v>
       </c>
       <c r="F55" t="n">
-        <v>8.014921793625822</v>
+        <v>8.42190911976372</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.74536661474183</v>
+        <v>-6.731475681426759</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.697262572003539</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.37132553037415</v>
+        <v>-12.48437756541245</v>
       </c>
       <c r="F56" t="n">
-        <v>8.094130225818265</v>
+        <v>8.494047708421631</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.65025103459669</v>
+        <v>-6.630245995854533</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.930163268875248</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.91894719028399</v>
+        <v>-12.04896684980517</v>
       </c>
       <c r="F57" t="n">
-        <v>7.70193720189152</v>
+        <v>8.109317297114668</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.886606377798371</v>
+        <v>-6.856716650410711</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.19153268708334</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.46463118937325</v>
+        <v>-11.53529034781005</v>
       </c>
       <c r="F58" t="n">
-        <v>7.882427688867555</v>
+        <v>8.279988556959408</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.740617292164162</v>
+        <v>-7.767744543652219</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.475351789570346</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.52400478276048</v>
+        <v>-11.59855235514127</v>
       </c>
       <c r="F59" t="n">
-        <v>7.734825066629935</v>
+        <v>8.135318610558336</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.70889464237866</v>
+        <v>-7.767652897532327</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.782057401312071</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.33736091344883</v>
+        <v>-11.47896726098494</v>
       </c>
       <c r="F60" t="n">
-        <v>7.570202450698072</v>
+        <v>7.953518893298128</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.960502518390951</v>
+        <v>-8.034264552601236</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.104064667970195</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.39223075465851</v>
+        <v>-11.52664942793451</v>
       </c>
       <c r="F61" t="n">
-        <v>7.375284245990454</v>
+        <v>7.727545746249936</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.427465683846796</v>
+        <v>-8.514738974589742</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.438508172215601</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.55107966503717</v>
+        <v>-11.70029264052432</v>
       </c>
       <c r="F62" t="n">
-        <v>7.474183501656853</v>
+        <v>7.833357737816765</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.696198291976065</v>
+        <v>-8.823101983420916</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.780737951954907</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.16867968363603</v>
+        <v>-11.29481092921322</v>
       </c>
       <c r="F63" t="n">
-        <v>7.848230593844966</v>
+        <v>8.24655081550164</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.756684731104839</v>
+        <v>-8.840619484623145</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.123296401549426</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.83228605442072</v>
+        <v>-10.94374082851234</v>
       </c>
       <c r="F64" t="n">
-        <v>7.682612962897132</v>
+        <v>8.058571531300137</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.037396796334288</v>
+        <v>-9.180534943302879</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.465767664150575</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.83280974653439</v>
+        <v>-10.91415222409004</v>
       </c>
       <c r="F65" t="n">
-        <v>7.668761306490586</v>
+        <v>8.065536636411936</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.094741082781049</v>
+        <v>-9.204480765200396</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.799366189285793</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.51720669423174</v>
+        <v>-10.53739502521369</v>
       </c>
       <c r="F66" t="n">
-        <v>7.456063754523904</v>
+        <v>7.813954945005327</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.535768396307432</v>
+        <v>-9.684562418103649</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.125667613762891</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.74643982468753</v>
+        <v>-10.79115003889202</v>
       </c>
       <c r="F67" t="n">
-        <v>7.228571900346072</v>
+        <v>7.594187549504114</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.570240429689697</v>
+        <v>-9.632874006484514</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.439803051382902</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.95645345457165</v>
+        <v>-11.02749228979086</v>
       </c>
       <c r="F68" t="n">
-        <v>7.193327421096145</v>
+        <v>7.526317051572605</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.426081083099451</v>
+        <v>-9.593950590136062</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.741311267261075</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.76800284746785</v>
+        <v>-10.84871689448709</v>
       </c>
       <c r="F69" t="n">
-        <v>7.137999349287011</v>
+        <v>7.45216224827707</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.382562268453555</v>
+        <v>-9.484433476865025</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.030798128206015</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.04461702190784</v>
+        <v>-11.11339088873542</v>
       </c>
       <c r="F70" t="n">
-        <v>6.969082458023061</v>
+        <v>7.292305230579594</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.571156890888618</v>
+        <v>-9.715578083535698</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.304263603034743</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.99702650107816</v>
+        <v>-11.06836645926273</v>
       </c>
       <c r="F71" t="n">
-        <v>6.548819536803654</v>
+        <v>6.834467400204433</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.517635556871642</v>
+        <v>-9.625345932350521</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.56602187567532</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.00479023666331</v>
+        <v>-11.08234903869769</v>
       </c>
       <c r="F72" t="n">
-        <v>6.855650746202346</v>
+        <v>7.174500689609743</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.857001138832024</v>
+        <v>-9.977528878792953</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.81030938690148</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.45287430142138</v>
+        <v>-11.5344917173367</v>
       </c>
       <c r="F73" t="n">
-        <v>7.018466624342052</v>
+        <v>7.358159513873476</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.496373657056678</v>
+        <v>-9.53559819637049</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.039050888539665</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.59682417116616</v>
+        <v>-11.71198406696198</v>
       </c>
       <c r="F74" t="n">
-        <v>6.913335432522992</v>
+        <v>7.194060590055281</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.611468091338292</v>
+        <v>-9.667712624346347</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.24980302292574</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.14383367619632</v>
+        <v>-12.26311764738728</v>
       </c>
       <c r="F75" t="n">
-        <v>6.900714452583568</v>
+        <v>7.216160397252115</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.850585910439577</v>
+        <v>-9.935842986544897</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.439219941597612</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.97504770796078</v>
+        <v>-12.05746375434945</v>
       </c>
       <c r="F76" t="n">
-        <v>6.792074523602924</v>
+        <v>7.097465579689027</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.935384755945437</v>
+        <v>-10.02090367810759</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.6074899789621</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.73485950338035</v>
+        <v>-12.84268770958481</v>
       </c>
       <c r="F77" t="n">
-        <v>6.723104272232711</v>
+        <v>7.004772075569607</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.661546149707895</v>
+        <v>-9.725462772181201</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.747149560550509</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.4292097845913</v>
+        <v>-13.52885530151968</v>
       </c>
       <c r="F78" t="n">
-        <v>6.780710404736307</v>
+        <v>7.096208718616221</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.974828681053678</v>
+        <v>-9.012743990083317</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.856599672898028</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.61450514671025</v>
+        <v>-13.64164549050114</v>
       </c>
       <c r="F79" t="n">
-        <v>6.987594974241262</v>
+        <v>7.284947356382544</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.284553289380392</v>
+        <v>-9.40399436820546</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.927313928968104</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.22814138090195</v>
+        <v>-14.27406917927072</v>
       </c>
       <c r="F80" t="n">
-        <v>6.963033814110183</v>
+        <v>7.259653027292329</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.632792269313585</v>
+        <v>-8.685750634308366</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.951771836233631</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.81967780789681</v>
+        <v>-14.8582346397657</v>
       </c>
       <c r="F81" t="n">
-        <v>7.114249911932119</v>
+        <v>7.445040035531171</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.494825581967476</v>
+        <v>-8.587309609241428</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.924783702291533</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.66042621948394</v>
+        <v>-15.71850367488983</v>
       </c>
       <c r="F82" t="n">
-        <v>7.170442075728808</v>
+        <v>7.545693659778361</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.391920081631509</v>
+        <v>-8.444106000758628</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.83500912273427</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.66714575419562</v>
+        <v>-16.7147362750253</v>
       </c>
       <c r="F83" t="n">
-        <v>7.33399112282765</v>
+        <v>7.672086751412384</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.282167306909319</v>
+        <v>-8.356610140867375</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.679219827712167</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.51859057720444</v>
+        <v>-17.51063045707667</v>
       </c>
       <c r="F84" t="n">
-        <v>7.306366363831608</v>
+        <v>7.685388531099577</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.937237496241204</v>
+        <v>-8.01357871411131</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.450784616235964</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.36313575661566</v>
+        <v>-18.42645013315824</v>
       </c>
       <c r="F85" t="n">
-        <v>7.459729599319587</v>
+        <v>7.834981183369139</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.664930689436144</v>
+        <v>-7.672301655936035</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.147770221056412</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.64641709655596</v>
+        <v>-19.70044903038377</v>
       </c>
       <c r="F86" t="n">
-        <v>7.326999833110168</v>
+        <v>7.698402280124253</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.752897872229702</v>
+        <v>-7.833808303791568</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.774367571528517</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.67977946755056</v>
+        <v>-20.72819480345926</v>
       </c>
       <c r="F87" t="n">
-        <v>7.454047539886278</v>
+        <v>7.858521143878563</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.158310938672712</v>
+        <v>-7.162749229336058</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.330388345072942</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.940136185215</v>
+        <v>-21.93986124685533</v>
       </c>
       <c r="F88" t="n">
-        <v>7.794159383108638</v>
+        <v>8.219816333098835</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.217226301460479</v>
+        <v>-7.207263058997926</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.829035797411797</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.66643486871364</v>
+        <v>-23.74106099491148</v>
       </c>
       <c r="F89" t="n">
-        <v>7.616627756574832</v>
+        <v>8.059540361710425</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.902199310482867</v>
+        <v>-6.912594598939197</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.274916941137676</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.81004752193841</v>
+        <v>-24.80177318654244</v>
       </c>
       <c r="F90" t="n">
-        <v>7.959462798788271</v>
+        <v>8.444715911314006</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.315798249555835</v>
+        <v>-7.328183568044108</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.681077024549771</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.55523839843765</v>
+        <v>-26.55056444632315</v>
       </c>
       <c r="F91" t="n">
-        <v>8.035633816721433</v>
+        <v>8.467863102738178</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.840010871984668</v>
+        <v>-6.845182331607149</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.058641796213556</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.5535165811703</v>
+        <v>-28.57815629511843</v>
       </c>
       <c r="F92" t="n">
-        <v>7.71089233703526</v>
+        <v>8.170641643625313</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.100416775506599</v>
+        <v>-7.097038961373434</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.41276017548535</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.41330438444317</v>
+        <v>-30.47680205322554</v>
       </c>
       <c r="F93" t="n">
-        <v>7.772504714208423</v>
+        <v>8.192427235553945</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.289466445187245</v>
+        <v>-6.213766750156385</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.758786664606731</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.37694033385662</v>
+        <v>-32.46156897942554</v>
       </c>
       <c r="F94" t="n">
-        <v>7.71468910485936</v>
+        <v>8.158465801982507</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.704152045396077</v>
+        <v>-6.687603374604135</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.096388814269642</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.78271644253799</v>
+        <v>-34.92940260357669</v>
       </c>
       <c r="F95" t="n">
-        <v>7.722361194324612</v>
+        <v>8.242701678466172</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.983879004558517</v>
+        <v>-5.890426146874276</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.434435837044145</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.23404067280573</v>
+        <v>-37.38440577094295</v>
       </c>
       <c r="F96" t="n">
-        <v>7.441217083101386</v>
+        <v>7.937336806985754</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.894759699114887</v>
+        <v>-5.804776301683704</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.77529704062581</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.18470215010302</v>
+        <v>-39.35135407297535</v>
       </c>
       <c r="F97" t="n">
-        <v>7.395289284732612</v>
+        <v>7.898400298334461</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.448901325839906</v>
+        <v>-5.352790730678795</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.114454662786172</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.59699822559957</v>
+        <v>-41.75507469011058</v>
       </c>
       <c r="F98" t="n">
-        <v>7.326345217968082</v>
+        <v>7.874389014922735</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.617412355715762</v>
+        <v>-5.469731179661093</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.467887095747518</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.04192031977771</v>
+        <v>-44.23384038713457</v>
       </c>
       <c r="F99" t="n">
-        <v>7.136428272946003</v>
+        <v>7.656533095636413</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.362479034781672</v>
+        <v>-5.260071041953691</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.8161005077435137</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.15327672215435</v>
+        <v>-46.37924986920254</v>
       </c>
       <c r="F100" t="n">
-        <v>6.855886407653498</v>
+        <v>7.397593530032755</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.395275253400196</v>
+        <v>-5.242854663716821</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2023329862055639</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.58019689992511</v>
+        <v>-48.83406974432901</v>
       </c>
       <c r="F101" t="n">
-        <v>6.863453758696015</v>
+        <v>7.464599935976709</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.370059478127032</v>
+        <v>-5.226410731347613</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.4165872692283851</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.11082120850518</v>
+        <v>-51.39576208755251</v>
       </c>
       <c r="F102" t="n">
-        <v>6.035391788562524</v>
+        <v>6.584247308293365</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.049782473709887</v>
+        <v>-4.891784563015936</v>
       </c>
     </row>
   </sheetData>
